--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8618EF35-A0F8-4868-8A8A-B589A53B051E}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464A1043-8239-4916-82F1-0169D50180CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -219,21 +219,9 @@
     <t>Outer walls</t>
   </si>
   <si>
-    <t>9526011b40bb76a51963028784dd315b'</t>
-  </si>
-  <si>
     <t>5459b69c924e694863fe07b6beca9d31</t>
   </si>
   <si>
-    <t>'5f551cc90e19303fcbd5c24385c38544'</t>
-  </si>
-  <si>
-    <t>9fda2f5ef0c1309141b798483b169b23'</t>
-  </si>
-  <si>
-    <t>'a4691e46aed0e2930eb906b649d10e5d'</t>
-  </si>
-  <si>
     <t>6e42121fc70b20fd5cb6d57925f7e017</t>
   </si>
   <si>
@@ -466,6 +454,18 @@
   </si>
   <si>
     <t>Ecoinvent_key_renovation_eol</t>
+  </si>
+  <si>
+    <t>9526011b40bb76a51963028784dd315b</t>
+  </si>
+  <si>
+    <t>5f551cc90e19303fcbd5c24385c38544</t>
+  </si>
+  <si>
+    <t>9fda2f5ef0c1309141b798483b169b23</t>
+  </si>
+  <si>
+    <t>a4691e46aed0e2930eb906b649d10e5d</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,6 +671,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1361,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1384,16 +1385,16 @@
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -1402,13 +1403,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1416,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="14">
         <v>32</v>
@@ -1440,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1450,16 +1451,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F3" s="14">
         <v>758</v>
@@ -1474,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -1484,16 +1485,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F4" s="14">
         <v>158</v>
@@ -1508,7 +1509,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -1518,16 +1519,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>
@@ -1542,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1555,13 +1556,13 @@
         <v>49</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6" s="14">
         <v>800</v>
@@ -1576,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1595,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" s="19">
         <f>5692*16</f>
@@ -1611,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1627,10 +1628,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="14">
         <f>2480</f>
@@ -1646,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -1662,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F9" s="14">
         <f>3524</f>
@@ -1680,8 +1681,8 @@
       <c r="I9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>55</v>
+      <c r="J9" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1698,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="14">
         <f>335</f>
@@ -1717,7 +1718,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -1734,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" s="14">
         <f>231</f>
@@ -1753,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1767,13 +1768,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F12" s="14">
         <f>0.13*15</f>
@@ -1789,7 +1790,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -1809,7 +1810,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F13" s="19">
         <v>42.3</v>
@@ -1824,7 +1825,7 @@
         <v>39</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1838,10 +1839,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F14" s="14">
         <v>41.7</v>
@@ -1856,7 +1857,7 @@
         <v>46</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -1873,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F15" s="14">
         <v>540</v>
@@ -1891,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -1905,13 +1906,13 @@
         <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" s="14">
         <v>1.8</v>
@@ -1926,7 +1927,7 @@
         <v>44</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1940,13 +1941,13 @@
         <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" s="14">
         <v>2765</v>
@@ -1961,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1972,16 +1973,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="14">
         <v>147</v>
@@ -1996,7 +1997,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -2007,16 +2008,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19" s="14">
         <v>363</v>
@@ -2031,7 +2032,7 @@
         <v>44</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -2042,16 +2043,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20" s="14">
         <v>578</v>
@@ -2066,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -2077,16 +2078,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F21" s="14">
         <v>2195</v>
@@ -2101,7 +2102,7 @@
         <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -2112,16 +2113,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22" s="14">
         <v>63</v>
@@ -2136,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -2147,16 +2148,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="14">
         <v>12.6</v>
@@ -2171,7 +2172,7 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -2182,16 +2183,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F24" s="14">
         <v>2315</v>
@@ -2206,7 +2207,7 @@
         <v>47</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
@@ -2217,16 +2218,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25" s="14">
         <v>750</v>
@@ -2241,7 +2242,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -2252,16 +2253,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F26" s="14">
         <f>284*0.3</f>
@@ -2277,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -2288,16 +2289,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="14">
         <v>700</v>
@@ -2312,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -2323,16 +2324,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F28" s="14">
         <v>873</v>
@@ -2347,7 +2348,7 @@
         <v>44</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -2358,16 +2359,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F29" s="14">
         <v>693</v>
@@ -2382,7 +2383,7 @@
         <v>43</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -2393,16 +2394,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" s="19">
         <f>142*50</f>
@@ -2418,7 +2419,7 @@
         <v>43</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -2429,16 +2430,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" s="14">
         <v>632</v>
@@ -2453,7 +2454,7 @@
         <v>38</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -2464,16 +2465,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F32" s="14">
         <v>159</v>
@@ -2488,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -2499,16 +2500,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F33" s="14">
         <v>962</v>
@@ -2523,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -2534,16 +2535,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F34" s="14">
         <v>18</v>
@@ -2558,7 +2559,7 @@
         <v>45</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
@@ -2569,16 +2570,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F35" s="14">
         <v>98</v>
@@ -2593,7 +2594,7 @@
         <v>45</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -2604,16 +2605,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -2628,7 +2629,7 @@
         <v>45</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -2639,7 +2640,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>10</v>
@@ -2648,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -2663,7 +2664,7 @@
         <v>45</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -2674,22 +2675,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F38" s="14">
         <v>196</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H38" s="14">
         <v>26</v>
@@ -2698,7 +2699,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -2709,16 +2710,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F39" s="14">
         <v>8</v>
@@ -2733,7 +2734,7 @@
         <v>45</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -2808,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2834,16 +2835,16 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2852,19 +2853,19 @@
         <v>12</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -2884,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" s="8">
         <v>2480</v>
@@ -2905,7 +2906,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -2925,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G3" s="14">
         <f>G2*3</f>
@@ -2947,7 +2948,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -2967,7 +2968,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="8">
         <v>749.6</v>
@@ -2988,7 +2989,7 @@
         <v>37</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3008,7 +3009,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8">
         <v>2302</v>
@@ -3029,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3049,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="8">
         <v>632.39</v>
@@ -3070,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3090,7 +3091,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G7" s="8">
         <v>10112</v>
@@ -3111,7 +3112,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3131,7 +3132,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" s="8">
         <v>42.3</v>
@@ -3152,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3172,7 +3173,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="8">
         <v>42.3</v>
@@ -3193,7 +3194,7 @@
         <v>39</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3213,7 +3214,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -3232,7 +3233,7 @@
         <v>40</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -3252,7 +3253,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -3273,7 +3274,7 @@
         <v>42</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464A1043-8239-4916-82F1-0169D50180CA}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857B4468-A1EF-477F-BB29-061688625E9D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -462,10 +462,10 @@
     <t>5f551cc90e19303fcbd5c24385c38544</t>
   </si>
   <si>
-    <t>9fda2f5ef0c1309141b798483b169b23</t>
-  </si>
-  <si>
     <t>a4691e46aed0e2930eb906b649d10e5d</t>
+  </si>
+  <si>
+    <t>2c559dbc4e822b444792e122dffe6c20</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +553,12 @@
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -665,13 +671,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1258,28 +1264,28 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
@@ -1293,27 +1299,27 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1362,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1577,7 +1583,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1681,8 +1687,8 @@
       <c r="I9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>133</v>
+      <c r="J9" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1927,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -2032,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -2102,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -2348,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -2524,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -2559,7 +2565,7 @@
         <v>45</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
@@ -2594,7 +2600,7 @@
         <v>45</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -2629,7 +2635,7 @@
         <v>45</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -2664,7 +2670,7 @@
         <v>45</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -2699,7 +2705,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -2734,7 +2740,7 @@
         <v>45</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -2800,6 +2806,7 @@
       <c r="H46" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2809,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857B4468-A1EF-477F-BB29-061688625E9D}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6F5B9A-8B2E-4CB3-A67E-AA3CC5653C3B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="131">
   <si>
     <t>kg</t>
   </si>
@@ -411,12 +411,6 @@
     <t>4bc9d21071e8ba4901877ca4ab4ba175</t>
   </si>
   <si>
-    <t>f4b533e7e7ea55443ac66bc1d7edb771</t>
-  </si>
-  <si>
-    <t>a5f2280b72eab45fac5be638870c61ae</t>
-  </si>
-  <si>
     <t>Building_component</t>
   </si>
   <si>
@@ -451,9 +445,6 @@
   </si>
   <si>
     <t>Ecoinvent_activity_renovation_eol</t>
-  </si>
-  <si>
-    <t>Ecoinvent_key_renovation_eol</t>
   </si>
   <si>
     <t>9526011b40bb76a51963028784dd315b</t>
@@ -1366,10 +1357,10 @@
   <sheetPr>
     <tabColor rgb="FF3182BD"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1386,21 +1377,21 @@
     <col min="10" max="10" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -1409,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1447,12 +1438,12 @@
         <v>43</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1483,10 +1474,10 @@
       <c r="J3" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1517,10 +1508,10 @@
       <c r="J4" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1549,12 +1540,12 @@
         <v>46</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1583,12 +1574,12 @@
         <v>45</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1618,12 +1609,12 @@
         <v>43</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1655,10 +1646,10 @@
       <c r="J8" s="14" t="s">
         <v>112</v>
       </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1688,13 +1679,13 @@
         <v>44</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1726,11 +1717,11 @@
       <c r="J10" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1762,11 +1753,11 @@
       <c r="J11" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1796,13 +1787,13 @@
         <v>43</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1834,7 +1825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1863,13 +1854,13 @@
         <v>46</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1900,11 +1891,11 @@
       <c r="J15" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1933,13 +1924,13 @@
         <v>44</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1968,13 +1959,13 @@
         <v>43</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2003,13 +1994,13 @@
         <v>43</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2038,13 +2029,13 @@
         <v>44</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2073,13 +2064,13 @@
         <v>43</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2108,13 +2099,13 @@
         <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2145,11 +2136,11 @@
       <c r="J22" s="25" t="s">
         <v>52</v>
       </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2178,13 +2169,13 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2215,11 +2206,11 @@
       <c r="J24" s="25" t="s">
         <v>52</v>
       </c>
+      <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2250,11 +2241,11 @@
       <c r="J25" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2284,13 +2275,13 @@
         <v>43</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2321,11 +2312,11 @@
       <c r="J27" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2354,13 +2345,13 @@
         <v>44</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2389,13 +2380,13 @@
         <v>43</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2425,13 +2416,13 @@
         <v>43</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2462,11 +2453,11 @@
       <c r="J31" s="25" t="s">
         <v>113</v>
       </c>
+      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2497,11 +2488,11 @@
       <c r="J32" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2530,13 +2521,13 @@
         <v>44</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -2565,13 +2556,13 @@
         <v>45</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2600,13 +2591,13 @@
         <v>45</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -2635,13 +2626,13 @@
         <v>45</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -2670,13 +2661,13 @@
         <v>45</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2705,13 +2696,13 @@
         <v>45</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -2740,13 +2731,13 @@
         <v>45</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="23"/>
@@ -2756,11 +2747,11 @@
       <c r="H40" s="1"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2769,7 +2760,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2778,7 +2769,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2787,7 +2778,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2796,7 +2787,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2814,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2831,10 +2822,9 @@
     <col min="9" max="9" width="14" style="14" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="14"/>
     <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -2842,16 +2832,16 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2863,19 +2853,16 @@
         <v>84</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>7</v>
       </c>
@@ -2912,11 +2899,8 @@
       <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -2954,11 +2938,8 @@
       <c r="L3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>25</v>
       </c>
@@ -2995,11 +2976,8 @@
       <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>25</v>
       </c>
@@ -3036,11 +3014,8 @@
       <c r="L5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>31</v>
       </c>
@@ -3077,11 +3052,8 @@
       <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>31</v>
       </c>
@@ -3118,11 +3090,8 @@
       <c r="L7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>12</v>
       </c>
@@ -3159,11 +3128,8 @@
       <c r="L8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -3200,11 +3166,8 @@
       <c r="L9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>37</v>
       </c>
@@ -3239,11 +3202,8 @@
       <c r="L10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>37</v>
       </c>
@@ -3280,11 +3240,8 @@
       <c r="L11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6F5B9A-8B2E-4CB3-A67E-AA3CC5653C3B}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC63F26E-23E3-479F-8080-C2B911B1424E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Renovation" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Construction!$B$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Construction!$A$1:$J$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>kg</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>pc</t>
-  </si>
-  <si>
-    <t>polystyrene foam slab/polystyrene foam slab production/RER/kg</t>
-  </si>
-  <si>
-    <t>glass wool mat/glass wool mat production/CH/kg</t>
   </si>
   <si>
     <r>
@@ -171,9 +165,6 @@
     <t>Renovation_scenario</t>
   </si>
   <si>
-    <t>BAU_scenario</t>
-  </si>
-  <si>
     <t>Better_scenario</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
   </si>
   <si>
     <t>treatment of waste glass, municipal incineration (CH)</t>
-  </si>
-  <si>
-    <t>treatment of scrap steel, municipal incineration (CH)</t>
   </si>
   <si>
     <t>treatment of waste mineral wool, recycling (CH)</t>
@@ -597,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +620,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,9 +634,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1232,7 +1216,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1255,28 +1239,28 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="A5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
@@ -1290,27 +1274,27 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1359,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1379,19 +1363,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -1400,13 +1384,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1414,16 +1398,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="14">
         <v>32</v>
@@ -1435,10 +1419,10 @@
         <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1448,16 +1432,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F3" s="14">
         <v>758</v>
@@ -1469,10 +1453,10 @@
         <v>78</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -1482,16 +1466,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="14">
         <v>158</v>
@@ -1503,10 +1487,10 @@
         <v>78</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -1516,16 +1500,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>
@@ -1537,10 +1521,10 @@
         <v>78</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1550,16 +1534,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F6" s="14">
         <v>800</v>
@@ -1571,10 +1555,10 @@
         <v>80</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1584,32 +1568,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="19">
+        <v>86</v>
+      </c>
+      <c r="F7" s="18">
         <f>5692*16</f>
         <v>91072</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>80</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -1619,16 +1603,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F8" s="14">
         <f>2480</f>
@@ -1641,10 +1625,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -1654,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F9" s="14">
         <f>3524</f>
@@ -1672,14 +1656,14 @@
       <c r="G9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>80</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>129</v>
+      <c r="I9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1690,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10" s="14">
         <f>335</f>
@@ -1712,10 +1696,10 @@
         <v>80</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1726,16 +1710,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" s="14">
         <f>231</f>
@@ -1744,14 +1728,14 @@
       <c r="G11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>38</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1762,16 +1746,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="14">
         <f>0.13*15</f>
@@ -1784,10 +1768,10 @@
         <v>80</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1798,31 +1782,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="19">
+        <v>90</v>
+      </c>
+      <c r="F13" s="18">
         <v>42.3</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>30</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1830,16 +1814,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" s="14">
         <v>41.7</v>
@@ -1851,10 +1835,10 @@
         <v>80</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1865,16 +1849,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F15" s="14">
         <v>540</v>
@@ -1882,14 +1866,14 @@
       <c r="G15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>80</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1900,16 +1884,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F16" s="14">
         <v>1.8</v>
@@ -1920,11 +1904,11 @@
       <c r="H16" s="14">
         <v>80</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>44</v>
+      <c r="I16" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1935,16 +1919,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="14">
         <v>2765</v>
@@ -1952,14 +1936,14 @@
       <c r="G17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>80</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1970,16 +1954,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F18" s="14">
         <v>147</v>
@@ -1991,10 +1975,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2005,16 +1989,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="14">
         <v>363</v>
@@ -2025,11 +2009,11 @@
       <c r="H19" s="14">
         <v>40</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>44</v>
+      <c r="I19" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -2040,16 +2024,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" s="14">
         <v>578</v>
@@ -2061,10 +2045,10 @@
         <v>40</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -2075,16 +2059,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F21" s="14">
         <v>2195</v>
@@ -2095,11 +2079,11 @@
       <c r="H21" s="14">
         <v>40</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>44</v>
+      <c r="I21" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -2110,16 +2094,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F22" s="14">
         <v>63</v>
@@ -2131,10 +2115,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -2145,16 +2129,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F23" s="14">
         <v>12.6</v>
@@ -2166,10 +2150,10 @@
         <v>40</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2180,16 +2164,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="14">
         <v>2315</v>
@@ -2201,10 +2185,10 @@
         <v>40</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -2215,16 +2199,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F25" s="14">
         <v>750</v>
@@ -2236,10 +2220,10 @@
         <v>35</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -2250,16 +2234,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F26" s="14">
         <f>284*0.3</f>
@@ -2272,10 +2256,10 @@
         <v>35</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -2286,16 +2270,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F27" s="14">
         <v>700</v>
@@ -2307,10 +2291,10 @@
         <v>35</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -2321,16 +2305,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="14">
         <v>873</v>
@@ -2341,11 +2325,11 @@
       <c r="H28" s="14">
         <v>35</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>44</v>
+      <c r="I28" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2356,16 +2340,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F29" s="14">
         <v>693</v>
@@ -2377,10 +2361,10 @@
         <v>35</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -2391,18 +2375,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="19">
+        <v>100</v>
+      </c>
+      <c r="F30" s="18">
         <f>142*50</f>
         <v>7100</v>
       </c>
@@ -2413,10 +2397,10 @@
         <v>35</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -2427,16 +2411,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F31" s="14">
         <v>632</v>
@@ -2448,10 +2432,10 @@
         <v>35</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>113</v>
+        <v>35</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -2462,16 +2446,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F32" s="14">
         <v>159</v>
@@ -2483,10 +2467,10 @@
         <v>35</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -2497,16 +2481,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F33" s="14">
         <v>962</v>
@@ -2517,11 +2501,11 @@
       <c r="H33" s="14">
         <v>35</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>44</v>
+      <c r="I33" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -2532,16 +2516,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F34" s="14">
         <v>18</v>
@@ -2553,10 +2537,10 @@
         <v>26</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -2567,16 +2551,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F35" s="14">
         <v>98</v>
@@ -2588,10 +2572,10 @@
         <v>26</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -2602,16 +2586,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -2623,10 +2607,10 @@
         <v>26</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -2637,16 +2621,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -2658,10 +2642,10 @@
         <v>26</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -2672,31 +2656,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F38" s="14">
         <v>196</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H38" s="14">
         <v>26</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -2707,16 +2691,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F39" s="14">
         <v>8</v>
@@ -2728,10 +2712,10 @@
         <v>26</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -2740,7 +2724,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="14"/>
       <c r="F40" s="8"/>
       <c r="G40" s="1"/>
@@ -2797,6 +2781,7 @@
       <c r="H46" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J39" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2805,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2826,22 +2811,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2850,16 +2835,16 @@
         <v>12</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -2867,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2875,25 +2860,25 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>21</v>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2480</v>
-      </c>
-      <c r="H2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="14">
+        <v>7440</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="29">
-        <v>102672</v>
-      </c>
-      <c r="K2" s="32">
+        <v>0.17</v>
+      </c>
+      <c r="J2" s="28">
+        <v>39060</v>
+      </c>
+      <c r="K2" s="30">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2902,348 +2887,159 @@
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>30</v>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="14">
-        <f>G2*3</f>
-        <v>7440</v>
-      </c>
-      <c r="H3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2302</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="J3" s="30">
-        <v>39060</v>
-      </c>
-      <c r="K3" s="32">
+      <c r="I3" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="J3" s="29">
+        <v>12085.5</v>
+      </c>
+      <c r="K3" s="30">
         <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G4" s="8">
-        <v>749.6</v>
+        <v>10112</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="26">
-        <v>0.25</v>
+      <c r="I4" s="25">
+        <v>0.125</v>
       </c>
       <c r="J4" s="29">
-        <v>31033.439999999999</v>
-      </c>
-      <c r="K4" s="32">
+        <v>53088</v>
+      </c>
+      <c r="K4" s="30">
         <v>38</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="8">
+        <v>42.3</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="28">
+        <v>12690</v>
+      </c>
+      <c r="K5" s="30">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2302</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0.18</v>
-      </c>
-      <c r="J5" s="31">
-        <v>12085.5</v>
-      </c>
-      <c r="K5" s="32">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3</v>
+      </c>
+      <c r="J6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="31">
+        <v>26</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>31</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="8">
-        <v>632.39</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J6" s="31">
-        <v>1075.0629999999999</v>
-      </c>
-      <c r="K6" s="32">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>31</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="8">
-        <v>10112</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0.125</v>
-      </c>
-      <c r="J7" s="31">
-        <v>53088</v>
-      </c>
-      <c r="K7" s="32">
-        <v>38</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="8">
-        <v>42.3</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1.6</v>
-      </c>
-      <c r="J8" s="30">
-        <v>12690</v>
-      </c>
-      <c r="K8" s="32">
-        <v>30</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="8">
-        <v>42.3</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="30">
-        <v>12690</v>
-      </c>
-      <c r="K9" s="32">
-        <v>30</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>37</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30">
-        <v>123</v>
-      </c>
-      <c r="K10" s="33">
-        <v>26</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>37</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="28">
-        <v>3</v>
-      </c>
-      <c r="J11" s="30">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="33">
-        <v>26</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC63F26E-23E3-479F-8080-C2B911B1424E}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B8B906-2041-4AFC-A933-7DD64F44497F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
   <si>
     <t>kg</t>
   </si>
@@ -354,9 +354,6 @@
     <t>6b0d0d8e979df0e13df8df4bb4a13937</t>
   </si>
   <si>
-    <t xml:space="preserve"> f01da346064ac8bf21ded7059c994b9a</t>
-  </si>
-  <si>
     <t>4c4f7ca9062f5f38fe7c02bd57ce2fbd</t>
   </si>
   <si>
@@ -445,6 +442,15 @@
   </si>
   <si>
     <t>2c559dbc4e822b444792e122dffe6c20</t>
+  </si>
+  <si>
+    <t>f01da346064ac8bf21ded7059c994b9a</t>
+  </si>
+  <si>
+    <t>Ecoinvent_key_renovation_eol</t>
+  </si>
+  <si>
+    <t>a5f2280b72eab45fac5be638870c61ae</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="F19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1366,16 +1372,16 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -1384,13 +1390,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1422,7 +1428,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1524,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1558,7 +1564,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1593,7 +1599,7 @@
         <v>39</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -1628,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -1663,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1771,7 +1777,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1806,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1838,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1908,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1943,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1978,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2013,7 +2019,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -2048,7 +2054,7 @@
         <v>39</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -2083,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -2138,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F23" s="14">
         <v>12.6</v>
@@ -2153,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2173,7 +2179,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="14">
         <v>2315</v>
@@ -2243,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="14">
         <f>284*0.3</f>
@@ -2259,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -2329,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2349,7 +2355,7 @@
         <v>69</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="14">
         <v>693</v>
@@ -2364,7 +2370,7 @@
         <v>39</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -2384,7 +2390,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="18">
         <f>142*50</f>
@@ -2400,7 +2406,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -2435,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -2505,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -2540,7 +2546,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -2560,7 +2566,7 @@
         <v>73</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="14">
         <v>98</v>
@@ -2575,7 +2581,7 @@
         <v>41</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -2595,7 +2601,7 @@
         <v>74</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -2610,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -2630,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -2645,7 +2651,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -2665,7 +2671,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="14">
         <v>196</v>
@@ -2680,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -2715,7 +2721,7 @@
         <v>41</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -2790,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2806,10 +2812,11 @@
     <col min="6" max="6" width="55.9140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="14" style="14" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="14"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="12" max="12" width="49.9140625" customWidth="1"/>
+    <col min="13" max="13" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2817,16 +2824,16 @@
         <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2838,16 +2845,19 @@
         <v>80</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>7</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="14">
         <v>7440</v>
@@ -2884,8 +2894,11 @@
       <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>24</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="8">
         <v>2302</v>
@@ -2922,8 +2935,11 @@
       <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>31</v>
       </c>
@@ -2940,7 +2956,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="8">
         <v>10112</v>
@@ -2960,8 +2976,11 @@
       <c r="L4" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>12</v>
       </c>
@@ -2978,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="8">
         <v>42.3</v>
@@ -2998,8 +3017,11 @@
       <c r="L5" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>37</v>
       </c>
@@ -3016,7 +3038,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -3036,8 +3058,11 @@
       <c r="L6" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B8B906-2041-4AFC-A933-7DD64F44497F}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BC9F61-F4A6-4BEF-840D-DF3D6D71BD92}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>33</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>33</v>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BC9F61-F4A6-4BEF-840D-DF3D6D71BD92}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947C1C61-7481-4DA7-82EB-BCECE3D3AF6D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -432,9 +432,6 @@
     <t>Ecoinvent_activity_renovation_eol</t>
   </si>
   <si>
-    <t>9526011b40bb76a51963028784dd315b</t>
-  </si>
-  <si>
     <t>5f551cc90e19303fcbd5c24385c38544</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>a5f2280b72eab45fac5be638870c61ae</t>
+  </si>
+  <si>
+    <t>3d3a786bfd99f7e4e312c33c1def0b86</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1428,7 +1428,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1530,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1564,7 +1564,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1599,7 +1599,7 @@
         <v>39</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -1669,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1777,7 +1777,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1844,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1914,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1984,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2019,7 +2019,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -2054,7 +2054,7 @@
         <v>39</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -2144,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="14">
         <v>12.6</v>
@@ -2159,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2265,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -2335,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2370,7 +2370,7 @@
         <v>39</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -2406,7 +2406,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -2511,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -2546,7 +2546,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -2581,7 +2581,7 @@
         <v>41</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -2616,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -2651,7 +2651,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -2686,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -2721,7 +2721,7 @@
         <v>41</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2854,7 +2854,7 @@
         <v>121</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3059,7 +3059,7 @@
         <v>38</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947C1C61-7481-4DA7-82EB-BCECE3D3AF6D}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B0FC223-B4CC-488F-959C-0AD11CDE3458}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
   <si>
     <t>kg</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>3d3a786bfd99f7e4e312c33c1def0b86</t>
+  </si>
+  <si>
+    <t>3246153e750845445c7438afe894c6f6</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,6 +662,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1350,7 +1354,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1878,8 +1882,8 @@
       <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>47</v>
+      <c r="J15" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pellan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{6345C01B-554F-4A03-841D-DFB7846477DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B0FC223-B4CC-488F-959C-0AD11CDE3458}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164BE62-10B5-4DBC-BB57-8A0FE6EC1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
   <si>
     <t>kg</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Outer walls</t>
   </si>
   <si>
-    <t>5459b69c924e694863fe07b6beca9d31</t>
-  </si>
-  <si>
-    <t>6e42121fc70b20fd5cb6d57925f7e017</t>
-  </si>
-  <si>
     <t>Foundation</t>
   </si>
   <si>
@@ -432,12 +426,6 @@
     <t>Ecoinvent_activity_renovation_eol</t>
   </si>
   <si>
-    <t>5f551cc90e19303fcbd5c24385c38544</t>
-  </si>
-  <si>
-    <t>a4691e46aed0e2930eb906b649d10e5d</t>
-  </si>
-  <si>
     <t>2c559dbc4e822b444792e122dffe6c20</t>
   </si>
   <si>
@@ -453,7 +441,16 @@
     <t>3d3a786bfd99f7e4e312c33c1def0b86</t>
   </si>
   <si>
-    <t>3246153e750845445c7438afe894c6f6</t>
+    <t>3f058e3bf6791c71e3b121c63c75eba4</t>
+  </si>
+  <si>
+    <t>557ae7fde4ce8151502d7b8bad49825e</t>
+  </si>
+  <si>
+    <t>c7cc9503597cc920755ef5c587f0aa89</t>
+  </si>
+  <si>
+    <t>93f25e8a8b68f240f61f18dcd270ba1f</t>
   </si>
 </sst>
 </file>
@@ -463,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,6 +545,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -594,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,7 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -655,14 +661,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1195,12 +1205,12 @@
       <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="8.6640625" style="14"/>
+    <col min="1" max="9" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1223,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1224,7 +1234,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="17.399999999999999">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1247,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.399999999999999">
       <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1248,31 +1258,31 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="64.05" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1283,31 +1293,31 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1318,7 +1328,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1329,7 +1339,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="17"/>
     </row>
   </sheetData>
@@ -1353,39 +1363,39 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="14"/>
-    <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="102.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="86.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="102.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="86.09765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="53.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="61.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="50.55" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -1394,30 +1404,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14">
         <v>32</v>
@@ -1432,26 +1442,26 @@
         <v>39</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="14">
         <v>758</v>
@@ -1465,27 +1475,27 @@
       <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>47</v>
+      <c r="J3" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="14">
         <v>158</v>
@@ -1499,27 +1509,27 @@
       <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>47</v>
+      <c r="J4" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>
@@ -1533,13 +1543,13 @@
       <c r="I5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>122</v>
+      <c r="J5" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1547,13 +1557,13 @@
         <v>45</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="14">
         <v>800</v>
@@ -1567,13 +1577,13 @@
       <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>124</v>
+      <c r="J6" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="18">
         <f>5692*16</f>
@@ -1603,12 +1613,12 @@
         <v>39</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1619,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="14">
         <f>2480</f>
@@ -1638,12 +1648,12 @@
         <v>37</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1654,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="14">
         <f>3524</f>
@@ -1672,14 +1682,14 @@
       <c r="I9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>123</v>
+      <c r="J9" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1690,10 +1700,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="14">
         <f>335</f>
@@ -1708,14 +1718,14 @@
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>47</v>
+      <c r="J10" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1726,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11" s="14">
         <f>231</f>
@@ -1744,14 +1754,14 @@
       <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>47</v>
+      <c r="J11" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1759,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="14">
         <f>0.13*15</f>
@@ -1781,13 +1791,13 @@
         <v>39</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="14" customFormat="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="18">
         <v>42.3</v>
@@ -1815,11 +1825,11 @@
       <c r="I13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J13" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1830,10 +1840,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="14">
         <v>41.7</v>
@@ -1847,14 +1857,14 @@
       <c r="I14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>122</v>
+      <c r="J14" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1865,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="14">
         <v>540</v>
@@ -1882,14 +1892,14 @@
       <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>129</v>
+      <c r="J15" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1897,13 +1907,13 @@
         <v>46</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="14">
         <v>1.8</v>
@@ -1917,14 +1927,14 @@
       <c r="I16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>123</v>
+      <c r="J16" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1932,13 +1942,13 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="14">
         <v>2765</v>
@@ -1953,27 +1963,27 @@
         <v>39</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" s="14">
         <v>147</v>
@@ -1988,27 +1998,27 @@
         <v>39</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="14">
         <v>363</v>
@@ -2022,28 +2032,28 @@
       <c r="I19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>123</v>
+      <c r="J19" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="14">
         <v>578</v>
@@ -2058,27 +2068,27 @@
         <v>39</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="14">
         <v>2195</v>
@@ -2092,28 +2102,28 @@
       <c r="I21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>123</v>
+      <c r="J21" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="14">
         <v>63</v>
@@ -2127,28 +2137,28 @@
       <c r="I22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>48</v>
+      <c r="J22" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F23" s="14">
         <v>12.6</v>
@@ -2162,28 +2172,28 @@
       <c r="I23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>122</v>
+      <c r="J23" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F24" s="14">
         <v>2315</v>
@@ -2197,28 +2207,28 @@
       <c r="I24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>48</v>
+      <c r="J24" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="14">
         <v>750</v>
@@ -2232,28 +2242,28 @@
       <c r="I25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>87</v>
+      <c r="J25" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="14">
         <f>284*0.3</f>
@@ -2269,27 +2279,27 @@
         <v>39</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="14">
         <v>700</v>
@@ -2303,28 +2313,28 @@
       <c r="I27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>47</v>
+      <c r="J27" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="14">
         <v>873</v>
@@ -2338,28 +2348,28 @@
       <c r="I28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>123</v>
+      <c r="J28" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="14">
         <v>693</v>
@@ -2374,27 +2384,27 @@
         <v>39</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="18">
         <f>142*50</f>
@@ -2410,27 +2420,27 @@
         <v>39</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="14">
         <v>632</v>
@@ -2444,28 +2454,28 @@
       <c r="I31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="24" t="s">
-        <v>108</v>
+      <c r="J31" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="14">
         <v>159</v>
@@ -2479,28 +2489,28 @@
       <c r="I32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="22" t="s">
-        <v>47</v>
+      <c r="J32" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="14">
         <v>962</v>
@@ -2514,28 +2524,28 @@
       <c r="I33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>123</v>
+      <c r="J33" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="14">
         <v>18</v>
@@ -2549,28 +2559,28 @@
       <c r="I34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="23" t="s">
-        <v>124</v>
+      <c r="J34" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="14">
         <v>98</v>
@@ -2584,28 +2594,28 @@
       <c r="I35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>124</v>
+      <c r="J35" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -2619,19 +2629,19 @@
       <c r="I36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="23" t="s">
-        <v>124</v>
+      <c r="J36" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>10</v>
@@ -2640,7 +2650,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -2654,34 +2664,34 @@
       <c r="I37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>124</v>
+      <c r="J37" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="14">
         <v>196</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="14">
         <v>26</v>
@@ -2689,28 +2699,28 @@
       <c r="I38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="23" t="s">
-        <v>124</v>
+      <c r="J38" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="14">
         <v>8</v>
@@ -2724,14 +2734,14 @@
       <c r="I39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>124</v>
+      <c r="J39" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="22"/>
@@ -2741,11 +2751,11 @@
       <c r="H40" s="1"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="B41" s="5"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2754,7 +2764,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2763,7 +2773,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2772,7 +2782,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2781,7 +2791,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2802,25 +2812,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="14"/>
-    <col min="2" max="2" width="18.58203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="55.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.9140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" style="14"/>
+    <col min="2" max="2" width="18.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="55.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.8984375" style="14" customWidth="1"/>
     <col min="9" max="9" width="14" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="14"/>
-    <col min="12" max="12" width="49.9140625" customWidth="1"/>
-    <col min="13" max="13" width="45.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="14"/>
+    <col min="12" max="12" width="49.8984375" customWidth="1"/>
+    <col min="13" max="13" width="45.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.55" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2828,16 +2838,16 @@
         <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2846,22 +2856,22 @@
         <v>12</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1">
       <c r="A2" s="14">
         <v>7</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="14">
         <v>7440</v>
@@ -2886,23 +2896,23 @@
       <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>0.17</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="27">
         <v>39060</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="29">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1">
       <c r="A3" s="14">
         <v>24</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8">
         <v>2302</v>
@@ -2927,23 +2937,23 @@
       <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>0.18</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>12085.5</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1">
       <c r="A4" s="14">
         <v>30</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="8">
         <v>10112</v>
@@ -2968,23 +2978,23 @@
       <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>0.125</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>53088</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>38</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1">
       <c r="A5" s="14">
         <v>12</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="8">
         <v>42.3</v>
@@ -3009,23 +3019,23 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>1.5</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>12690</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>30</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="14">
         <v>36</v>
       </c>
@@ -3042,7 +3052,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -3050,23 +3060,23 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>3</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <v>1000</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <v>26</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>

--- a/Case_study_existing_building_wEOL_4.xlsx
+++ b/Case_study_existing_building_wEOL_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pellan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/thibault_goessel_cstb_fr/Documents/Cours/Dds Autumn School 2023/project_2/MCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164BE62-10B5-4DBC-BB57-8A0FE6EC1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C164BE62-10B5-4DBC-BB57-8A0FE6EC1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AE9D44-180B-4B01-85AB-11B5DE97EEE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -661,17 +661,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,9 +1205,9 @@
       <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="9" width="8.69921875" style="14"/>
+    <col min="1" max="9" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1234,7 +1234,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999">
+    <row r="3" spans="1:9" ht="17.5">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999">
+    <row r="4" spans="1:9" ht="17.5">
       <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1259,28 +1259,28 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9" ht="64.05" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="64" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="11"/>
@@ -1294,27 +1294,27 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9">
@@ -1363,25 +1363,25 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11" style="14"/>
-    <col min="2" max="2" width="21.19921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="102.69921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="86.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="102.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="86.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="61.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.55" customHeight="1">
+    <row r="1" spans="1:13" ht="50.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="E1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1475,7 +1475,7 @@
       <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="31" t="s">
         <v>125</v>
       </c>
       <c r="L3" s="14"/>
@@ -1509,7 +1509,7 @@
       <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>125</v>
       </c>
       <c r="L4" s="14"/>
@@ -1543,7 +1543,7 @@
       <c r="I5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="31" t="s">
         <v>126</v>
       </c>
       <c r="L5" s="14"/>
@@ -1577,7 +1577,7 @@
       <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="14"/>
@@ -1599,8 +1599,7 @@
       <c r="E7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="18">
-        <f>5692*16</f>
+      <c r="F7" s="14">
         <v>91072</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -1635,7 +1634,6 @@
         <v>85</v>
       </c>
       <c r="F8" s="14">
-        <f>2480</f>
         <v>2480</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1670,7 +1668,6 @@
         <v>86</v>
       </c>
       <c r="F9" s="14">
-        <f>3524</f>
         <v>3524</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -1682,7 +1679,7 @@
       <c r="I9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K9" s="14"/>
@@ -1706,7 +1703,6 @@
         <v>87</v>
       </c>
       <c r="F10" s="14">
-        <f>335</f>
         <v>335</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1718,7 +1714,7 @@
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K10" s="14"/>
@@ -1742,7 +1738,6 @@
         <v>81</v>
       </c>
       <c r="F11" s="14">
-        <f>231</f>
         <v>231</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1754,7 +1749,7 @@
       <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K11" s="14"/>
@@ -1778,7 +1773,6 @@
         <v>84</v>
       </c>
       <c r="F12" s="14">
-        <f>0.13*15</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1813,7 +1807,7 @@
       <c r="E13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>42.3</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -1825,7 +1819,7 @@
       <c r="I13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="31" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1857,7 +1851,7 @@
       <c r="I14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="31" t="s">
         <v>126</v>
       </c>
       <c r="K14" s="14"/>
@@ -1892,7 +1886,7 @@
       <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K15" s="14"/>
@@ -1927,7 +1921,7 @@
       <c r="I16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K16" s="14"/>
@@ -2032,7 +2026,7 @@
       <c r="I19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K19" s="14"/>
@@ -2102,7 +2096,7 @@
       <c r="I21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K21" s="14"/>
@@ -2137,7 +2131,7 @@
       <c r="I22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>127</v>
       </c>
       <c r="K22" s="14"/>
@@ -2172,7 +2166,7 @@
       <c r="I23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="31" t="s">
         <v>126</v>
       </c>
       <c r="K23" s="14"/>
@@ -2207,7 +2201,7 @@
       <c r="I24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="31" t="s">
         <v>127</v>
       </c>
       <c r="K24" s="14"/>
@@ -2242,7 +2236,7 @@
       <c r="I25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K25" s="14"/>
@@ -2266,7 +2260,6 @@
         <v>95</v>
       </c>
       <c r="F26" s="14">
-        <f>284*0.3</f>
         <v>85.2</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2313,7 +2306,7 @@
       <c r="I27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K27" s="14"/>
@@ -2348,7 +2341,7 @@
       <c r="I28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K28" s="14"/>
@@ -2406,8 +2399,7 @@
       <c r="E30" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="18">
-        <f>142*50</f>
+      <c r="F30" s="14">
         <v>7100</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -2489,7 +2481,7 @@
       <c r="I32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="31" t="s">
         <v>125</v>
       </c>
       <c r="K32" s="14"/>
@@ -2524,7 +2516,7 @@
       <c r="I33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="31" t="s">
         <v>128</v>
       </c>
       <c r="K33" s="14"/>
@@ -2559,7 +2551,7 @@
       <c r="I34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K34" s="14"/>
@@ -2594,7 +2586,7 @@
       <c r="I35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K35" s="14"/>
@@ -2629,7 +2621,7 @@
       <c r="I36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K36" s="14"/>
@@ -2664,7 +2656,7 @@
       <c r="I37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K37" s="14"/>
@@ -2699,7 +2691,7 @@
       <c r="I38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K38" s="14"/>
@@ -2734,7 +2726,7 @@
       <c r="I39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="32" t="s">
         <v>120</v>
       </c>
       <c r="K39" s="14"/>
@@ -2746,7 +2738,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="22"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="14"/>
@@ -2754,13 +2746,14 @@
     <row r="41" spans="1:13">
       <c r="B41" s="5"/>
       <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:13">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
@@ -2769,7 +2762,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
@@ -2778,7 +2771,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
@@ -2787,7 +2780,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
@@ -2796,7 +2789,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
@@ -2812,25 +2805,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="14"/>
-    <col min="2" max="2" width="18.59765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="55.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.8984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="14"/>
+    <col min="2" max="2" width="18.58203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="55.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.9140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="14" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" style="14"/>
-    <col min="12" max="12" width="49.8984375" customWidth="1"/>
-    <col min="13" max="13" width="45.796875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="14"/>
+    <col min="12" max="12" width="49.9140625" customWidth="1"/>
+    <col min="13" max="13" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.55" customHeight="1">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="50.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
